--- a/ATU/otg.xlsx
+++ b/ATU/otg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\робота\OTG\Django\project1\ATU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vasya\python_projects\project1\ATU\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,17 +14,18 @@
   <sheets>
     <sheet name="otg" sheetId="1" r:id="rId1"/>
     <sheet name="import_otg" sheetId="2" r:id="rId2"/>
-    <sheet name="images" sheetId="3" r:id="rId3"/>
+    <sheet name="geoportals_sluzh" sheetId="4" r:id="rId3"/>
+    <sheet name="images" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">import_otg!$A$1:$J$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">import_otg!$A$1:$N$98</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="734">
   <si>
     <t>oblast</t>
   </si>
@@ -2151,6 +2152,81 @@
   </si>
   <si>
     <t>images/yuryivska.png</t>
+  </si>
+  <si>
+    <t>Дніпропетровська</t>
+  </si>
+  <si>
+    <t>Васильківська</t>
+  </si>
+  <si>
+    <t>https://otgportal.com.ua/arcgis/apps/webappviewer/index.html?id=08bf0033a39749d38a0b342e66076db1</t>
+  </si>
+  <si>
+    <t>https://otgportal.com.ua/arcgis/apps/webappviewer/index.html?id=e833522c8e2640cfa661fce318627e70</t>
+  </si>
+  <si>
+    <t>https://otgportal.com.ua/arcgis/apps/webappviewer/index.html?id=72a7b670fa73421da4d219384933e16b</t>
+  </si>
+  <si>
+    <t>https://gis1.otgportal.com.ua/portal/apps/webappviewer/index.html?id=eb191d00bf9547ce8cfdfcfd6418e709</t>
+  </si>
+  <si>
+    <t>Запорізька</t>
+  </si>
+  <si>
+    <t>https://gis1.otgportal.com.ua/portal/apps/webappviewer/index.html?id=dc6333fd34da42798dc25f5ff78948fb</t>
+  </si>
+  <si>
+    <t>https://otgportal.com.ua/arcgis/apps/webappviewer/index.html?id=d72ed5dd6168452b92894b32c09d5549</t>
+  </si>
+  <si>
+    <t>Ів-Франківська</t>
+  </si>
+  <si>
+    <t>https://gis2.otgportal.com.ua/portal/apps/webappviewer/index.html?id=bcbf0582308940d18f565e0d21cd7089</t>
+  </si>
+  <si>
+    <t>Луганська</t>
+  </si>
+  <si>
+    <t>https://otgportal.com.ua/arcgis/apps/webappviewer/index.html?id=1bf2fb0b1308481f890ca95fc1872b2a</t>
+  </si>
+  <si>
+    <t>https://otgportal.com.ua/arcgis/apps/webappviewer/index.html?id=2d4df6fb9b03487ea8c292beb4ac0d0f</t>
+  </si>
+  <si>
+    <t>https://otgportal.com.ua/arcgis/apps/webappviewer/index.html?id=5f96c4a57924429585831cc1d53bfcad</t>
+  </si>
+  <si>
+    <t>Харківська</t>
+  </si>
+  <si>
+    <t>https://gis2.otgportal.com.ua/portal/apps/webappviewer/index.html?id=3bf6fbdaa33c48bcbf9b31c632448973</t>
+  </si>
+  <si>
+    <t>https://otgportal.com.ua/arcgis/apps/webappviewer/index.html?id=28ce0ce8d4d54f6cb3957e0796db4b2d</t>
+  </si>
+  <si>
+    <t>https://otgportal.com.ua/arcgis/apps/webappviewer/index.html?id=08a15e87ddb245a997ee0648974d633e</t>
+  </si>
+  <si>
+    <t>https://otgportal.com.ua/arcgis/apps/webappviewer/index.html?id=506b39174a9a4c9c87e0c2ccb1b0cf16</t>
+  </si>
+  <si>
+    <t>https://gis1.otgportal.com.ua/portal/apps/webappviewer/index.html?id=2debf8fe0c924e05a69b06461b8043b7</t>
+  </si>
+  <si>
+    <t>https://gis2.otgportal.com.ua/portal/apps/webappviewer/index.html?id=eb593ac106214276813338cd0a05279d</t>
+  </si>
+  <si>
+    <t>Службовий</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>images/merefyanska.png</t>
   </si>
 </sst>
 </file>
@@ -2197,7 +2273,25 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2500,7 +2594,7 @@
       <selection activeCell="B18" sqref="A1:I81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
@@ -2510,7 +2604,7 @@
     <col min="8" max="1024" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2539,7 +2633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2568,7 +2662,7 @@
         <v>0.97441748086000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2597,7 +2691,7 @@
         <v>2.4513984416099999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2626,7 +2720,7 @@
         <v>0.94185334817999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2655,7 +2749,7 @@
         <v>0.71054292251999995</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2684,7 +2778,7 @@
         <v>0.79112936584000004</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2713,7 +2807,7 @@
         <v>0.62720008217000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2742,7 +2836,7 @@
         <v>1.5198014743899999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2771,7 +2865,7 @@
         <v>1.8563860615200001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2800,7 +2894,7 @@
         <v>0.80954337265999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2829,7 +2923,7 @@
         <v>1.0337819512499999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2858,7 +2952,7 @@
         <v>1.35576781882</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2887,7 +2981,7 @@
         <v>1.0024176573200001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -2916,7 +3010,7 @@
         <v>1.26822810545</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2945,7 +3039,7 @@
         <v>1.2580868438899999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2974,7 +3068,7 @@
         <v>1.5147670873700001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -3003,7 +3097,7 @@
         <v>1.2435588996</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3032,7 +3126,7 @@
         <v>2.0147804950200001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -3061,7 +3155,7 @@
         <v>1.3441434272599999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -3090,7 +3184,7 @@
         <v>1.8260822054100001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -3119,7 +3213,7 @@
         <v>1.4251226964599999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -3148,7 +3242,7 @@
         <v>2.85797310838</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -3177,7 +3271,7 @@
         <v>1.0693496147799999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -3206,7 +3300,7 @@
         <v>0.71337638683000004</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -3235,7 +3329,7 @@
         <v>1.3369657615199999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -3264,7 +3358,7 @@
         <v>1.30385360727</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -3293,7 +3387,7 @@
         <v>0.55517475364000002</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -3322,7 +3416,7 @@
         <v>2.5472274969000002</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -3351,7 +3445,7 @@
         <v>1.0753121102600001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -3380,7 +3474,7 @@
         <v>3.2245394953200002</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -3409,7 +3503,7 @@
         <v>2.79574034973</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3438,7 +3532,7 @@
         <v>1.6380275281200001</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -3467,7 +3561,7 @@
         <v>0.99214588364</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -3496,7 +3590,7 @@
         <v>2.2789653202400002</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -3525,7 +3619,7 @@
         <v>0.87226980309000002</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -3554,7 +3648,7 @@
         <v>0.99899364412000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -3583,7 +3677,7 @@
         <v>0.89240876805000002</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -3612,7 +3706,7 @@
         <v>1.4993895450500001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -3641,7 +3735,7 @@
         <v>1.7614474960399999</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -3670,7 +3764,7 @@
         <v>2.3443527979700001</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -3699,7 +3793,7 @@
         <v>2.2831013532500002</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -3728,7 +3822,7 @@
         <v>0.78489549871999997</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>121</v>
       </c>
@@ -3757,7 +3851,7 @@
         <v>2.2958300058000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -3786,7 +3880,7 @@
         <v>2.6429918137800001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -3815,7 +3909,7 @@
         <v>1.1943417616600001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -3844,7 +3938,7 @@
         <v>2.90590885207</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -3873,7 +3967,7 @@
         <v>2.2903285872499999</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>183</v>
       </c>
@@ -3902,7 +3996,7 @@
         <v>2.4423859549800002</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -3931,7 +4025,7 @@
         <v>1.3356844591299999</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -3960,7 +4054,7 @@
         <v>0.94904222218000001</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -3989,7 +4083,7 @@
         <v>1.3504065078700001</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -4018,7 +4112,7 @@
         <v>1.9749353898799999</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>200</v>
       </c>
@@ -4047,7 +4141,7 @@
         <v>2.7187567583000001</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -4076,7 +4170,7 @@
         <v>2.2026298387000001</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -4105,7 +4199,7 @@
         <v>2.2322278226000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -4134,7 +4228,7 @@
         <v>2.45299508562</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>41</v>
       </c>
@@ -4163,7 +4257,7 @@
         <v>0.53525554253999996</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -4192,7 +4286,7 @@
         <v>1.6620823419799999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -4221,7 +4315,7 @@
         <v>1.47400132895</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -4250,7 +4344,7 @@
         <v>1.1610850771400001</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>183</v>
       </c>
@@ -4279,7 +4373,7 @@
         <v>1.7406017652900001</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -4308,7 +4402,7 @@
         <v>2.23247370625</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -4337,7 +4431,7 @@
         <v>1.37294988636</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -4366,7 +4460,7 @@
         <v>2.4914781927399998</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -4395,7 +4489,7 @@
         <v>1.2634903603200001</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>121</v>
       </c>
@@ -4424,7 +4518,7 @@
         <v>2.8296449286700001</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -4453,7 +4547,7 @@
         <v>0.81924484093000005</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -4482,7 +4576,7 @@
         <v>1.9729413359800001</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>121</v>
       </c>
@@ -4511,7 +4605,7 @@
         <v>1.6704202271199999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -4540,7 +4634,7 @@
         <v>1.55097648459</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -4569,7 +4663,7 @@
         <v>1.9399000156799999</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -4598,7 +4692,7 @@
         <v>2.0242321947300002</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -4627,7 +4721,7 @@
         <v>1.6273022082699999</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -4656,7 +4750,7 @@
         <v>1.0088085256999999</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>64</v>
       </c>
@@ -4685,7 +4779,7 @@
         <v>1.57655857768</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -4714,7 +4808,7 @@
         <v>1.52430682497</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -4743,7 +4837,7 @@
         <v>1.91588619043</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -4772,7 +4866,7 @@
         <v>1.4714975529500001</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -4801,7 +4895,7 @@
         <v>3.1606581203499999</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -4830,7 +4924,7 @@
         <v>1.4983162489899999</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>64</v>
       </c>
@@ -4866,10 +4960,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N81"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N81"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="G84" sqref="G84:N98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4930,7 +5027,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -4974,7 +5071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>211</v>
       </c>
@@ -5018,7 +5115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -5062,7 +5159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -5106,7 +5203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>239</v>
       </c>
@@ -5194,7 +5291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>265</v>
       </c>
@@ -5238,7 +5335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -5282,7 +5379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -5326,7 +5423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>170</v>
       </c>
@@ -5370,7 +5467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -5414,7 +5511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>189</v>
       </c>
@@ -5458,7 +5555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>276</v>
       </c>
@@ -5502,7 +5599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>273</v>
       </c>
@@ -5546,7 +5643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -5590,7 +5687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -5678,7 +5775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>208</v>
       </c>
@@ -5722,7 +5819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>163</v>
       </c>
@@ -5766,7 +5863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>205</v>
       </c>
@@ -5810,7 +5907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -5854,7 +5951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>285</v>
       </c>
@@ -5942,7 +6039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>174</v>
       </c>
@@ -6030,7 +6127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>192</v>
       </c>
@@ -6074,7 +6171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>153</v>
       </c>
@@ -6162,7 +6259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>177</v>
       </c>
@@ -6206,7 +6303,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>108</v>
       </c>
@@ -6294,7 +6391,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>185</v>
       </c>
@@ -6338,7 +6435,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -6382,7 +6479,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -6470,7 +6567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -6514,7 +6611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -6602,7 +6699,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -6646,7 +6743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>270</v>
       </c>
@@ -6690,7 +6787,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>221</v>
       </c>
@@ -6734,7 +6831,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -6778,7 +6875,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>130</v>
       </c>
@@ -6822,7 +6919,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>255</v>
       </c>
@@ -6910,7 +7007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>180</v>
       </c>
@@ -6998,7 +7095,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>279</v>
       </c>
@@ -7042,7 +7139,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -7130,7 +7227,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -7174,7 +7271,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>214</v>
       </c>
@@ -7262,7 +7359,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -7306,7 +7403,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -7394,7 +7491,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -7438,7 +7535,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -7482,7 +7579,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>230</v>
       </c>
@@ -7526,7 +7623,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>262</v>
       </c>
@@ -7570,7 +7667,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -7614,7 +7711,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -7658,7 +7755,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>156</v>
       </c>
@@ -7702,7 +7799,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>197</v>
       </c>
@@ -7746,7 +7843,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -7834,7 +7931,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -7878,7 +7975,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>246</v>
       </c>
@@ -7922,7 +8019,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>123</v>
       </c>
@@ -8010,7 +8107,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>236</v>
       </c>
@@ -8054,7 +8151,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -8098,7 +8195,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>252</v>
       </c>
@@ -8142,7 +8239,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>46</v>
       </c>
@@ -8186,7 +8283,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>66</v>
       </c>
@@ -8230,7 +8327,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>227</v>
       </c>
@@ -8274,7 +8371,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>282</v>
       </c>
@@ -8318,7 +8415,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>104</v>
       </c>
@@ -8362,7 +8459,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>218</v>
       </c>
@@ -8406,7 +8503,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>160</v>
       </c>
@@ -8450,11 +8547,464 @@
         <v>80</v>
       </c>
     </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>732</v>
+      </c>
+      <c r="G82" t="s">
+        <v>732</v>
+      </c>
+      <c r="H82" t="s">
+        <v>732</v>
+      </c>
+      <c r="I82" t="s">
+        <v>732</v>
+      </c>
+      <c r="J82" t="s">
+        <v>732</v>
+      </c>
+      <c r="K82" t="s">
+        <v>732</v>
+      </c>
+      <c r="L82" t="s">
+        <v>732</v>
+      </c>
+      <c r="M82" t="s">
+        <v>732</v>
+      </c>
+      <c r="N82" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G83">
+        <v>82</v>
+      </c>
+      <c r="H83" t="s">
+        <v>731</v>
+      </c>
+      <c r="I83" t="s">
+        <v>711</v>
+      </c>
+      <c r="J83" t="s">
+        <v>708</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83" t="s">
+        <v>377</v>
+      </c>
+      <c r="N83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G84">
+        <v>83</v>
+      </c>
+      <c r="H84" t="s">
+        <v>731</v>
+      </c>
+      <c r="I84" t="s">
+        <v>712</v>
+      </c>
+      <c r="J84" t="s">
+        <v>681</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84" t="s">
+        <v>377</v>
+      </c>
+      <c r="N84">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G85">
+        <v>84</v>
+      </c>
+      <c r="H85" t="s">
+        <v>731</v>
+      </c>
+      <c r="I85" t="s">
+        <v>713</v>
+      </c>
+      <c r="J85" t="s">
+        <v>698</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85" t="s">
+        <v>377</v>
+      </c>
+      <c r="N85">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G86">
+        <v>85</v>
+      </c>
+      <c r="H86" t="s">
+        <v>731</v>
+      </c>
+      <c r="I86" t="s">
+        <v>714</v>
+      </c>
+      <c r="J86" t="s">
+        <v>666</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86" t="s">
+        <v>377</v>
+      </c>
+      <c r="N86">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G87">
+        <v>86</v>
+      </c>
+      <c r="H87" t="s">
+        <v>731</v>
+      </c>
+      <c r="I87" t="s">
+        <v>716</v>
+      </c>
+      <c r="J87" t="s">
+        <v>653</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87" t="s">
+        <v>377</v>
+      </c>
+      <c r="N87">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G88">
+        <v>87</v>
+      </c>
+      <c r="H88" t="s">
+        <v>731</v>
+      </c>
+      <c r="I88" t="s">
+        <v>717</v>
+      </c>
+      <c r="J88" t="s">
+        <v>675</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88" t="s">
+        <v>377</v>
+      </c>
+      <c r="N88">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G89">
+        <v>88</v>
+      </c>
+      <c r="H89" t="s">
+        <v>731</v>
+      </c>
+      <c r="I89" t="s">
+        <v>719</v>
+      </c>
+      <c r="J89" t="s">
+        <v>656</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89" t="s">
+        <v>377</v>
+      </c>
+      <c r="N89">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G90">
+        <v>89</v>
+      </c>
+      <c r="H90" t="s">
+        <v>731</v>
+      </c>
+      <c r="I90" t="s">
+        <v>721</v>
+      </c>
+      <c r="J90" t="s">
+        <v>634</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90" t="s">
+        <v>377</v>
+      </c>
+      <c r="N90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G91">
+        <v>90</v>
+      </c>
+      <c r="H91" t="s">
+        <v>731</v>
+      </c>
+      <c r="I91" t="s">
+        <v>722</v>
+      </c>
+      <c r="J91" t="s">
+        <v>659</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91" t="s">
+        <v>377</v>
+      </c>
+      <c r="N91">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G92">
+        <v>91</v>
+      </c>
+      <c r="H92" t="s">
+        <v>731</v>
+      </c>
+      <c r="I92" t="s">
+        <v>723</v>
+      </c>
+      <c r="J92" t="s">
+        <v>673</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92" t="s">
+        <v>377</v>
+      </c>
+      <c r="N92">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G93">
+        <v>92</v>
+      </c>
+      <c r="H93" t="s">
+        <v>731</v>
+      </c>
+      <c r="I93" t="s">
+        <v>725</v>
+      </c>
+      <c r="J93" t="s">
+        <v>645</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93" t="s">
+        <v>377</v>
+      </c>
+      <c r="N93">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G94">
+        <v>93</v>
+      </c>
+      <c r="H94" t="s">
+        <v>731</v>
+      </c>
+      <c r="I94" t="s">
+        <v>726</v>
+      </c>
+      <c r="J94" t="s">
+        <v>733</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94" t="s">
+        <v>377</v>
+      </c>
+      <c r="N94">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G95">
+        <v>94</v>
+      </c>
+      <c r="H95" t="s">
+        <v>731</v>
+      </c>
+      <c r="I95" t="s">
+        <v>727</v>
+      </c>
+      <c r="J95" t="s">
+        <v>694</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" t="s">
+        <v>377</v>
+      </c>
+      <c r="N95">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G96">
+        <v>95</v>
+      </c>
+      <c r="H96" t="s">
+        <v>731</v>
+      </c>
+      <c r="I96" t="s">
+        <v>728</v>
+      </c>
+      <c r="J96" t="s">
+        <v>678</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96" t="s">
+        <v>377</v>
+      </c>
+      <c r="N96">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G97">
+        <v>96</v>
+      </c>
+      <c r="H97" t="s">
+        <v>731</v>
+      </c>
+      <c r="I97" t="s">
+        <v>729</v>
+      </c>
+      <c r="J97" t="s">
+        <v>651</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97" t="s">
+        <v>377</v>
+      </c>
+      <c r="N97">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G98">
+        <v>97</v>
+      </c>
+      <c r="H98" t="s">
+        <v>731</v>
+      </c>
+      <c r="I98" t="s">
+        <v>730</v>
+      </c>
+      <c r="J98" t="s">
+        <v>684</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98" t="s">
+        <v>377</v>
+      </c>
+      <c r="N98">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:N98">
+    <filterColumn colId="13">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:M81">
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="B1:B81">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8462,6 +9012,203 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>715</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>720</v>
+      </c>
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>720</v>
+      </c>
+      <c r="B9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>720</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>724</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>724</v>
+      </c>
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>724</v>
+      </c>
+      <c r="B13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>718</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P80"/>
   <sheetViews>
@@ -11360,7 +12107,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B80">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
